--- a/results/comparaison/WM/diattenuation/median_normalized.xlsx
+++ b/results/comparaison/WM/diattenuation/median_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.9580265140567852</v>
       </c>
+      <c r="C3">
+        <v>1.10112144979628</v>
+      </c>
+      <c r="D3">
+        <v>1.170271638117604</v>
+      </c>
       <c r="E3">
+        <v>1.414806149891651</v>
+      </c>
+      <c r="F3">
         <v>1.036291776832378</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9801533019445555</v>
+      </c>
+      <c r="H3">
         <v>1.37265502178195</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>1.026631483314673</v>
+      </c>
+      <c r="J3">
         <v>0.9456268254801902</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.8401036418346823</v>
       </c>
-      <c r="K3">
-        <v>1.351646866315226</v>
+      <c r="L3">
+        <v>0.8942310241168245</v>
       </c>
       <c r="M3">
         <v>1.189194105569992</v>
       </c>
       <c r="N3">
+        <v>1.351646866315226</v>
+      </c>
+      <c r="O3">
+        <v>0.8341419199982513</v>
+      </c>
+      <c r="P3">
         <v>0.8991746794941099</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1.435033371264038</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.426663598964201</v>
       </c>
       <c r="S3">
-        <v>0.734071456568559</v>
+        <v>1.071996678855099</v>
+      </c>
+      <c r="T3">
+        <v>1.052747803640514</v>
+      </c>
+      <c r="U3">
+        <v>1.030195223619203</v>
+      </c>
+      <c r="V3">
+        <v>1.182278476079689</v>
       </c>
       <c r="W3">
         <v>1.194574236466503</v>
       </c>
+      <c r="X3">
+        <v>0.9507846021252772</v>
+      </c>
       <c r="Y3">
         <v>0.8397739174462925</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.9143333354569907</v>
       </c>
       <c r="AA3">
-        <v>0.9872805479234709</v>
+        <v>0.9903592778013856</v>
       </c>
       <c r="AB3">
-        <v>1.191193697632334</v>
+        <v>1.268164328984833</v>
+      </c>
+      <c r="AC3">
+        <v>1.328675659712701</v>
+      </c>
+      <c r="AD3">
+        <v>0.828295874431236</v>
+      </c>
+      <c r="AF3">
+        <v>1.217410509553995</v>
+      </c>
+      <c r="AG3">
+        <v>1.074074933463157</v>
+      </c>
+      <c r="AH3">
+        <v>1.412517357374655</v>
+      </c>
+      <c r="AI3">
+        <v>1.325932579764761</v>
+      </c>
+      <c r="AJ3">
+        <v>1.016348085581319</v>
+      </c>
+      <c r="AL3">
+        <v>0.8992262048289511</v>
+      </c>
+      <c r="AM3">
+        <v>1.398007632615073</v>
+      </c>
+      <c r="AN3">
+        <v>1.037892018999916</v>
+      </c>
+      <c r="AO3">
+        <v>1.028301513889032</v>
+      </c>
+      <c r="AP3">
+        <v>1.123371613743128</v>
       </c>
       <c r="AQ3">
-        <v>1.363080236181639</v>
+        <v>1.251149666524018</v>
       </c>
       <c r="AR3">
-        <v>1.123673531044415</v>
+        <v>1.138880330166778</v>
       </c>
       <c r="AS3">
-        <v>1.243684455350672</v>
+        <v>0.8021835721030826</v>
       </c>
       <c r="AT3">
-        <v>0.828295874431236</v>
+        <v>1.345125966777176</v>
       </c>
       <c r="AU3">
-        <v>1.217410509553995</v>
+        <v>1.555495428256691</v>
+      </c>
+      <c r="AV3">
+        <v>1.38686973043716</v>
       </c>
       <c r="AX3">
-        <v>1.325932579764761</v>
+        <v>1.330954165821369</v>
+      </c>
+      <c r="AY3">
+        <v>0.8047093235856978</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9655600482920366</v>
+      </c>
+      <c r="BA3">
+        <v>0.7144921541583701</v>
       </c>
       <c r="BB3">
-        <v>0.9238112796114184</v>
+        <v>1.015930887812889</v>
       </c>
       <c r="BC3">
-        <v>0.9852164338748314</v>
+        <v>0.8585709263905135</v>
+      </c>
+      <c r="BD3">
+        <v>0.8565770156921799</v>
+      </c>
+      <c r="BE3">
+        <v>0.778636596045797</v>
       </c>
       <c r="BF3">
-        <v>0.8474359375868535</v>
+        <v>0.8387294562664658</v>
+      </c>
+      <c r="BG3">
+        <v>1.04438575591831</v>
+      </c>
+      <c r="BH3">
+        <v>0.5885169356421132</v>
       </c>
       <c r="BI3">
-        <v>1.109358881891368</v>
+        <v>0.7948701661373206</v>
       </c>
       <c r="BJ3">
-        <v>0.8997645364439391</v>
+        <v>0.7591879486326265</v>
       </c>
       <c r="BK3">
-        <v>1.043053741556901</v>
+        <v>0.7005808352424562</v>
+      </c>
+      <c r="BM3">
+        <v>0.8434268493407355</v>
+      </c>
+      <c r="BN3">
+        <v>0.9260549273604779</v>
       </c>
       <c r="BO3">
-        <v>0.7803178076328477</v>
+        <v>0.785096972129017</v>
       </c>
       <c r="BP3">
-        <v>1.006126567788526</v>
+        <v>0.967008928076549</v>
       </c>
       <c r="BQ3">
-        <v>0.5436571158834937</v>
+        <v>1.059539209395499</v>
       </c>
       <c r="BR3">
-        <v>0.9656809217799454</v>
+        <v>0.982748036228123</v>
       </c>
       <c r="BS3">
-        <v>0.9902453702936139</v>
+        <v>1.105898814125248</v>
+      </c>
+      <c r="BT3">
+        <v>0.899255849473149</v>
       </c>
       <c r="BU3">
-        <v>1.200028031187198</v>
+        <v>1.069736043478849</v>
       </c>
       <c r="BV3">
-        <v>0.9880301669284483</v>
+        <v>1.022044094641644</v>
+      </c>
+      <c r="BW3">
+        <v>1.120416224795564</v>
+      </c>
+      <c r="BX3">
+        <v>0.9181758472836179</v>
+      </c>
+      <c r="BY3">
+        <v>0.7019193876802591</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9439320658565036</v>
+      </c>
+      <c r="CA3">
+        <v>1.072368461529431</v>
+      </c>
+      <c r="CB3">
+        <v>0.9639085690025815</v>
+      </c>
+      <c r="CC3">
+        <v>0.7463937959943119</v>
+      </c>
+      <c r="CD3">
+        <v>0.8099027006658859</v>
+      </c>
+      <c r="CE3">
+        <v>0.9799298112140791</v>
+      </c>
+      <c r="CF3">
+        <v>0.8056121511490791</v>
       </c>
       <c r="CG3">
-        <v>0.7976976161763289</v>
+        <v>0.829543035451859</v>
+      </c>
+      <c r="CH3">
+        <v>0.7493178531507838</v>
+      </c>
+      <c r="CI3">
+        <v>0.8588019818363478</v>
       </c>
       <c r="CK3">
-        <v>0.8679980345287769</v>
+        <v>0.8549447297399013</v>
+      </c>
+      <c r="CL3">
+        <v>0.8775082235161407</v>
+      </c>
+      <c r="CM3">
+        <v>0.7917920384720379</v>
       </c>
       <c r="CN3">
-        <v>0.6926188790993753</v>
+        <v>0.6532325959713982</v>
+      </c>
+      <c r="CO3">
+        <v>1.041126293135989</v>
+      </c>
+      <c r="CP3">
+        <v>0.8428538555262464</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7694733515482893</v>
+      </c>
+      <c r="CR3">
+        <v>0.8504879243321229</v>
+      </c>
+      <c r="CS3">
+        <v>0.7856014245939196</v>
+      </c>
+      <c r="CT3">
+        <v>1.225251188090189</v>
+      </c>
+      <c r="CU3">
+        <v>0.9589345614547038</v>
+      </c>
+      <c r="CV3">
+        <v>1.1028334465181</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.130870167713412</v>
       </c>
+      <c r="C4">
+        <v>1.126355484994531</v>
+      </c>
+      <c r="D4">
+        <v>1.173750451065741</v>
+      </c>
       <c r="E4">
+        <v>1.532538181101855</v>
+      </c>
+      <c r="F4">
         <v>1.064859096823586</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.432968983666357</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.039893190666224</v>
+      </c>
+      <c r="J4">
         <v>1.045064723577728</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9384575528953197</v>
       </c>
-      <c r="K4">
-        <v>1.30528009720117</v>
+      <c r="L4">
+        <v>0.9347399509243447</v>
       </c>
       <c r="M4">
         <v>1.328621562086151</v>
       </c>
       <c r="N4">
+        <v>1.30528009720117</v>
+      </c>
+      <c r="O4">
+        <v>0.9641332903249226</v>
+      </c>
+      <c r="P4">
         <v>0.9300875763432239</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.392964510437092</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1.367002999737731</v>
       </c>
       <c r="S4">
-        <v>0.8802567219618304</v>
+        <v>1.226880113962072</v>
+      </c>
+      <c r="T4">
+        <v>1.142251613735511</v>
+      </c>
+      <c r="U4">
+        <v>1.152444330028116</v>
+      </c>
+      <c r="V4">
+        <v>1.281876633739668</v>
       </c>
       <c r="W4">
         <v>1.221757847002406</v>
       </c>
+      <c r="X4">
+        <v>1.053532468694883</v>
+      </c>
       <c r="Y4">
         <v>1.008450641929195</v>
       </c>
       <c r="Z4">
         <v>1.036343849465714</v>
       </c>
+      <c r="AA4">
+        <v>0.9808618304902321</v>
+      </c>
       <c r="AB4">
-        <v>1.136234736074023</v>
+        <v>1.22549415949849</v>
+      </c>
+      <c r="AC4">
+        <v>1.235659565580382</v>
+      </c>
+      <c r="AD4">
+        <v>0.713749340875858</v>
+      </c>
+      <c r="AF4">
+        <v>1.046096330429052</v>
+      </c>
+      <c r="AG4">
+        <v>1.047132235025302</v>
       </c>
       <c r="AH4">
+        <v>1.352477604821677</v>
+      </c>
+      <c r="AI4">
+        <v>1.351371249288655</v>
+      </c>
+      <c r="AJ4">
+        <v>1.002450653840363</v>
+      </c>
+      <c r="AL4">
+        <v>0.9475403554819335</v>
+      </c>
+      <c r="AM4">
+        <v>1.533148168471583</v>
+      </c>
+      <c r="AN4">
         <v>1.125165066900017</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.9243193265860299</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>1.080144545056038</v>
+      </c>
+      <c r="AQ4">
+        <v>1.236394014164695</v>
+      </c>
+      <c r="AR4">
         <v>1.004489576629289</v>
       </c>
-      <c r="AM4">
-        <v>0.8458862880077375</v>
-      </c>
-      <c r="AQ4">
-        <v>1.293645252702392</v>
-      </c>
-      <c r="AR4">
-        <v>1.071192856835525</v>
-      </c>
-      <c r="AS4">
-        <v>1.163390644152895</v>
-      </c>
       <c r="AT4">
-        <v>0.713749340875858</v>
+        <v>1.21885006579435</v>
       </c>
       <c r="AU4">
-        <v>1.046096330429052</v>
-      </c>
-      <c r="AX4">
-        <v>1.351371249288655</v>
+        <v>1.539887245454944</v>
+      </c>
+      <c r="AV4">
+        <v>1.375411634322272</v>
+      </c>
+      <c r="AZ4">
+        <v>1.006596915762817</v>
+      </c>
+      <c r="BA4">
+        <v>0.9578717569753966</v>
       </c>
       <c r="BB4">
-        <v>0.9417985362822333</v>
+        <v>1.095355649710001</v>
       </c>
       <c r="BC4">
-        <v>1.029049975948935</v>
+        <v>0.8334856567832183</v>
+      </c>
+      <c r="BD4">
+        <v>0.9047415162365551</v>
+      </c>
+      <c r="BE4">
+        <v>0.882542716270715</v>
+      </c>
+      <c r="BF4">
+        <v>0.8979567201825818</v>
+      </c>
+      <c r="BG4">
+        <v>1.037082540416993</v>
+      </c>
+      <c r="BH4">
+        <v>0.6325546627258269</v>
       </c>
       <c r="BI4">
-        <v>1.007022185543496</v>
+        <v>0.7979816656952978</v>
       </c>
       <c r="BJ4">
-        <v>0.9193773231472537</v>
+        <v>0.841863478597772</v>
       </c>
       <c r="BK4">
-        <v>1.124815774357895</v>
+        <v>0.7444319272081669</v>
+      </c>
+      <c r="BL4">
+        <v>0.8296532000092202</v>
+      </c>
+      <c r="BM4">
+        <v>0.8305808628819223</v>
+      </c>
+      <c r="BN4">
+        <v>1.000864685597493</v>
+      </c>
+      <c r="BO4">
+        <v>0.8238899536171014</v>
       </c>
       <c r="BP4">
-        <v>1.082089951348753</v>
-      </c>
-      <c r="BS4">
-        <v>1.046894386785435</v>
+        <v>0.9324930815621642</v>
+      </c>
+      <c r="BQ4">
+        <v>1.148569554579216</v>
+      </c>
+      <c r="BR4">
+        <v>1.07771624368081</v>
+      </c>
+      <c r="BT4">
+        <v>0.9295705079148192</v>
       </c>
       <c r="BU4">
-        <v>1.314659022624088</v>
+        <v>1.08393606483317</v>
       </c>
       <c r="BV4">
-        <v>1.013786635563871</v>
+        <v>1.023844895031187</v>
+      </c>
+      <c r="BW4">
+        <v>1.202515713669204</v>
+      </c>
+      <c r="BX4">
+        <v>0.9788922223486994</v>
+      </c>
+      <c r="BY4">
+        <v>0.7521236800197716</v>
+      </c>
+      <c r="BZ4">
+        <v>1.183221663409922</v>
+      </c>
+      <c r="CA4">
+        <v>1.131098030764877</v>
+      </c>
+      <c r="CB4">
+        <v>1.002481637766182</v>
+      </c>
+      <c r="CC4">
+        <v>0.8045147307569066</v>
+      </c>
+      <c r="CD4">
+        <v>0.8468796867310845</v>
+      </c>
+      <c r="CE4">
+        <v>1.093097055317886</v>
       </c>
       <c r="CF4">
-        <v>0.6775805637750918</v>
+        <v>0.8828524025955173</v>
+      </c>
+      <c r="CG4">
+        <v>1.020051610464962</v>
       </c>
       <c r="CH4">
-        <v>0.9279499111652358</v>
+        <v>0.7855331662650145</v>
+      </c>
+      <c r="CI4">
+        <v>0.9256451228774217</v>
       </c>
       <c r="CK4">
-        <v>0.8935133782538696</v>
+        <v>0.971214087519389</v>
+      </c>
+      <c r="CL4">
+        <v>0.875103910980908</v>
+      </c>
+      <c r="CM4">
+        <v>0.8156745969731096</v>
       </c>
       <c r="CN4">
-        <v>0.747306405241231</v>
+        <v>0.9336691160322697</v>
+      </c>
+      <c r="CO4">
+        <v>1.226865129189828</v>
+      </c>
+      <c r="CP4">
+        <v>0.9826553466322909</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8291247244126196</v>
+      </c>
+      <c r="CR4">
+        <v>0.8587353745280187</v>
+      </c>
+      <c r="CS4">
+        <v>0.8988864347705344</v>
+      </c>
+      <c r="CT4">
+        <v>1.264705355540598</v>
+      </c>
+      <c r="CU4">
+        <v>0.8851393862231011</v>
+      </c>
+      <c r="CV4">
+        <v>1.268145594610783</v>
+      </c>
+      <c r="CW4">
+        <v>0.498963913342473</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.286046842485041</v>
       </c>
+      <c r="C5">
+        <v>0.9826492456226709</v>
+      </c>
       <c r="D5">
+        <v>1.226613560474343</v>
+      </c>
+      <c r="E5">
         <v>1.461551956964095</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.140145013381329</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.692486112677913</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.8549963490940483</v>
+      </c>
+      <c r="J5">
         <v>1.38379678196432</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.963161487630124</v>
       </c>
-      <c r="K5">
-        <v>1.566133883825649</v>
+      <c r="L5">
+        <v>1.018109826228762</v>
       </c>
       <c r="M5">
         <v>1.665351724105903</v>
       </c>
       <c r="N5">
+        <v>1.566133883825649</v>
+      </c>
+      <c r="O5">
+        <v>1.338036909050978</v>
+      </c>
+      <c r="P5">
         <v>1.191482699653625</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1.551580076659607</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1.622262305585063</v>
       </c>
       <c r="S5">
-        <v>1.120800603619765</v>
+        <v>1.398449510524703</v>
+      </c>
+      <c r="T5">
+        <v>1.246988814765235</v>
+      </c>
+      <c r="U5">
+        <v>1.196138312052261</v>
+      </c>
+      <c r="V5">
+        <v>1.370952401103289</v>
       </c>
       <c r="W5">
         <v>1.588592889651625</v>
       </c>
+      <c r="X5">
+        <v>1.142957584359752</v>
+      </c>
       <c r="Y5">
         <v>1.222572821382841</v>
       </c>
       <c r="Z5">
         <v>1.323483999939797</v>
       </c>
+      <c r="AA5">
+        <v>0.9625870650398449</v>
+      </c>
       <c r="AB5">
-        <v>0.9653222676729342</v>
+        <v>1.179339245848464</v>
+      </c>
+      <c r="AC5">
+        <v>1.224891327415877</v>
+      </c>
+      <c r="AD5">
+        <v>0.7592558554852453</v>
+      </c>
+      <c r="AF5">
+        <v>1.10469214501864</v>
+      </c>
+      <c r="AG5">
+        <v>1.172601662000476</v>
+      </c>
+      <c r="AH5">
+        <v>1.205929338928382</v>
+      </c>
+      <c r="AI5">
+        <v>1.471419728390507</v>
+      </c>
+      <c r="AJ5">
+        <v>1.126569330737867</v>
+      </c>
+      <c r="AL5">
+        <v>0.8716012886117692</v>
+      </c>
+      <c r="AM5">
+        <v>1.386561525483284</v>
+      </c>
+      <c r="AN5">
+        <v>1.248481430609006</v>
+      </c>
+      <c r="AO5">
+        <v>0.9341398044570531</v>
+      </c>
+      <c r="AP5">
+        <v>1.028218883757607</v>
       </c>
       <c r="AQ5">
-        <v>1.269811050895939</v>
+        <v>1.3452235121978</v>
       </c>
       <c r="AR5">
-        <v>1.108425793243415</v>
+        <v>0.9629351903427212</v>
       </c>
       <c r="AS5">
-        <v>1.313163370857083</v>
+        <v>0.8293940602495293</v>
       </c>
       <c r="AT5">
-        <v>0.7592558554852453</v>
+        <v>1.185786943746649</v>
       </c>
       <c r="AU5">
-        <v>1.10469214501864</v>
-      </c>
-      <c r="AX5">
-        <v>1.471419728390507</v>
+        <v>1.408863761817646</v>
+      </c>
+      <c r="AV5">
+        <v>1.338970894578477</v>
+      </c>
+      <c r="AY5">
+        <v>0.8861641663976478</v>
+      </c>
+      <c r="AZ5">
+        <v>1.013868177305297</v>
+      </c>
+      <c r="BA5">
+        <v>0.7181046999313324</v>
       </c>
       <c r="BB5">
-        <v>0.8755246580214928</v>
+        <v>1.204622192173006</v>
       </c>
       <c r="BC5">
-        <v>0.9041061973653209</v>
+        <v>0.6548786078222615</v>
+      </c>
+      <c r="BD5">
+        <v>0.8514047124927955</v>
       </c>
       <c r="BE5">
-        <v>0.8223382033381685</v>
+        <v>0.8127689187804592</v>
+      </c>
+      <c r="BF5">
+        <v>0.9229206687318456</v>
+      </c>
+      <c r="BG5">
+        <v>1.052477906545242</v>
+      </c>
+      <c r="BH5">
+        <v>0.6503413931192692</v>
       </c>
       <c r="BI5">
-        <v>1.036586350587076</v>
+        <v>0.7862201969175465</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8283058100182334</v>
       </c>
       <c r="BK5">
-        <v>1.213726726704244</v>
+        <v>0.7344292273863594</v>
+      </c>
+      <c r="BM5">
+        <v>0.8704613878770322</v>
+      </c>
+      <c r="BN5">
+        <v>0.9552298553168894</v>
+      </c>
+      <c r="BO5">
+        <v>0.7919332607177921</v>
       </c>
       <c r="BP5">
-        <v>0.894194154726788</v>
-      </c>
-      <c r="BS5">
-        <v>0.966702385131105</v>
+        <v>0.8225240111857849</v>
+      </c>
+      <c r="BQ5">
+        <v>1.03598214342042</v>
+      </c>
+      <c r="BR5">
+        <v>0.9818054796391501</v>
+      </c>
+      <c r="BT5">
+        <v>0.9246937576718698</v>
       </c>
       <c r="BU5">
-        <v>1.108624817670292</v>
+        <v>0.9088725970329953</v>
       </c>
       <c r="BV5">
-        <v>1.003677153605421</v>
+        <v>1.004304012261672</v>
+      </c>
+      <c r="BW5">
+        <v>0.9657547839815777</v>
+      </c>
+      <c r="BX5">
+        <v>0.9400335844210898</v>
+      </c>
+      <c r="BY5">
+        <v>0.6764008539953812</v>
       </c>
       <c r="BZ5">
-        <v>1.052228550708378</v>
+        <v>1.040291967897989</v>
+      </c>
+      <c r="CA5">
+        <v>1.053402528796192</v>
+      </c>
+      <c r="CB5">
+        <v>0.9588836024953334</v>
       </c>
       <c r="CC5">
-        <v>1.020711597586838</v>
+        <v>0.7063125498544636</v>
+      </c>
+      <c r="CD5">
+        <v>0.8177495721015747</v>
+      </c>
+      <c r="CE5">
+        <v>1.161085015063249</v>
+      </c>
+      <c r="CF5">
+        <v>0.712406234627908</v>
+      </c>
+      <c r="CG5">
+        <v>0.9429577774869239</v>
       </c>
       <c r="CH5">
-        <v>0.9124451739393591</v>
+        <v>0.8004036270425423</v>
+      </c>
+      <c r="CI5">
+        <v>0.8456910031515029</v>
       </c>
       <c r="CK5">
-        <v>0.8423938076109122</v>
+        <v>0.8342082576558624</v>
+      </c>
+      <c r="CL5">
+        <v>0.8994281917566385</v>
+      </c>
+      <c r="CM5">
+        <v>0.8183163528306283</v>
+      </c>
+      <c r="CN5">
+        <v>0.7763156482531479</v>
+      </c>
+      <c r="CO5">
+        <v>1.185029952095602</v>
       </c>
       <c r="CP5">
-        <v>1.13988767418266</v>
+        <v>0.8532042763975208</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7145118530147992</v>
+      </c>
+      <c r="CR5">
+        <v>0.992069642602302</v>
       </c>
       <c r="CS5">
-        <v>0.992069642602302</v>
+        <v>0.8356158048182529</v>
+      </c>
+      <c r="CT5">
+        <v>1.367716920861622</v>
+      </c>
+      <c r="CU5">
+        <v>1.053263367179526</v>
+      </c>
+      <c r="CV5">
+        <v>1.232074624671741</v>
+      </c>
+      <c r="CW5">
+        <v>0.4858778425279957</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.107787965184178</v>
       </c>
+      <c r="C6">
+        <v>0.9064266161754665</v>
+      </c>
+      <c r="D6">
+        <v>1.135672319287302</v>
+      </c>
       <c r="E6">
+        <v>1.563338804217002</v>
+      </c>
+      <c r="F6">
         <v>1.029982812705917</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.470041424537426</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1.00541135366021</v>
+      </c>
+      <c r="J6">
         <v>1.274593562124063</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.097580105452044</v>
       </c>
-      <c r="K6">
-        <v>1.490608906934296</v>
+      <c r="L6">
+        <v>0.9738364152737025</v>
       </c>
       <c r="M6">
         <v>1.581876572124659</v>
       </c>
       <c r="N6">
+        <v>1.490608906934296</v>
+      </c>
+      <c r="O6">
+        <v>1.270283134743717</v>
+      </c>
+      <c r="P6">
         <v>1.215056461829803</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>1.426220580171345</v>
+      </c>
+      <c r="R6">
         <v>1.355562472423648</v>
       </c>
       <c r="S6">
-        <v>1.007467450709874</v>
+        <v>1.324287292281668</v>
+      </c>
+      <c r="T6">
+        <v>1.244650638185837</v>
+      </c>
+      <c r="U6">
+        <v>1.218156515254754</v>
+      </c>
+      <c r="V6">
+        <v>1.500640287862409</v>
       </c>
       <c r="W6">
         <v>1.581987993197781</v>
       </c>
+      <c r="X6">
+        <v>1.230788609978563</v>
+      </c>
       <c r="Y6">
         <v>1.003205676216595</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1.219494918644973</v>
       </c>
       <c r="AA6">
-        <v>0.8111115583226906</v>
+        <v>0.9065596609632262</v>
       </c>
       <c r="AB6">
-        <v>0.7711157758831154</v>
+        <v>1.155430545794207</v>
+      </c>
+      <c r="AC6">
+        <v>1.160172998599314</v>
+      </c>
+      <c r="AD6">
+        <v>0.8476992888773108</v>
+      </c>
+      <c r="AF6">
+        <v>1.350568456189249</v>
+      </c>
+      <c r="AG6">
+        <v>1.100863951918997</v>
+      </c>
+      <c r="AH6">
+        <v>1.187107992787537</v>
+      </c>
+      <c r="AI6">
+        <v>2.131970475686921</v>
+      </c>
+      <c r="AJ6">
+        <v>1.428775905373984</v>
+      </c>
+      <c r="AK6">
+        <v>1.140815133844518</v>
+      </c>
+      <c r="AL6">
+        <v>0.9301453836691668</v>
+      </c>
+      <c r="AM6">
+        <v>1.463851735486804</v>
+      </c>
+      <c r="AN6">
+        <v>1.070554635860881</v>
+      </c>
+      <c r="AO6">
+        <v>1.108452975412858</v>
+      </c>
+      <c r="AP6">
+        <v>0.9164254806828045</v>
       </c>
       <c r="AQ6">
-        <v>1.300446157460313</v>
+        <v>1.280909242479043</v>
       </c>
       <c r="AR6">
-        <v>0.9678135687999005</v>
+        <v>1.198747504898906</v>
       </c>
       <c r="AS6">
-        <v>1.21088603447866</v>
+        <v>0.8064904613013204</v>
       </c>
       <c r="AT6">
-        <v>0.8476992888773108</v>
+        <v>1.066841351592563</v>
       </c>
       <c r="AU6">
-        <v>1.350568456189249</v>
+        <v>1.443685954218127</v>
+      </c>
+      <c r="AV6">
+        <v>1.246996335606352</v>
+      </c>
+      <c r="AW6">
+        <v>1.079793939738811</v>
       </c>
       <c r="AX6">
-        <v>2.131970475686921</v>
+        <v>1.259287890448299</v>
+      </c>
+      <c r="AY6">
+        <v>0.8896257894450486</v>
       </c>
       <c r="AZ6">
-        <v>0.8481517324657221</v>
+        <v>1.049759335872218</v>
+      </c>
+      <c r="BA6">
+        <v>1.027267859198236</v>
       </c>
       <c r="BB6">
-        <v>1.110392604250431</v>
+        <v>1.129495268857783</v>
+      </c>
+      <c r="BC6">
+        <v>0.8039368413348966</v>
+      </c>
+      <c r="BD6">
+        <v>0.7642336181331901</v>
       </c>
       <c r="BE6">
-        <v>0.8508982082322673</v>
+        <v>0.7474066964004508</v>
+      </c>
+      <c r="BF6">
+        <v>1.045401766089726</v>
+      </c>
+      <c r="BG6">
+        <v>1.025107887621291</v>
+      </c>
+      <c r="BH6">
+        <v>0.6744261725666437</v>
       </c>
       <c r="BI6">
-        <v>1.032521064857622</v>
+        <v>0.8347325236227332</v>
       </c>
       <c r="BJ6">
-        <v>0.8354206524394301</v>
+        <v>0.9263615058754916</v>
       </c>
       <c r="BK6">
-        <v>1.138896382693757</v>
+        <v>0.7515911404761286</v>
+      </c>
+      <c r="BL6">
+        <v>0.7824598482446278</v>
+      </c>
+      <c r="BM6">
+        <v>0.8043308655255025</v>
+      </c>
+      <c r="BN6">
+        <v>0.9685364673244425</v>
+      </c>
+      <c r="BO6">
+        <v>0.956251477038825</v>
       </c>
       <c r="BP6">
-        <v>1.051969080894344</v>
+        <v>0.9842791222058606</v>
+      </c>
+      <c r="BQ6">
+        <v>1.209406301552266</v>
       </c>
       <c r="BR6">
-        <v>0.9040213131229894</v>
+        <v>0.9771475410427538</v>
       </c>
       <c r="BS6">
-        <v>0.9705454094562252</v>
+        <v>1.146255257527604</v>
+      </c>
+      <c r="BT6">
+        <v>1.044682897152071</v>
       </c>
       <c r="BU6">
-        <v>1.321142703840356</v>
+        <v>1.114113320502303</v>
       </c>
       <c r="BV6">
-        <v>1.159195889279654</v>
+        <v>0.9820218623029626</v>
+      </c>
+      <c r="BW6">
+        <v>1.123489806507931</v>
+      </c>
+      <c r="BX6">
+        <v>0.9679143878213532</v>
+      </c>
+      <c r="BY6">
+        <v>0.7949709230255942</v>
       </c>
       <c r="BZ6">
-        <v>1.117356779751292</v>
+        <v>1.013416766557564</v>
       </c>
       <c r="CA6">
-        <v>0.5434917542608156</v>
+        <v>1.109467749338388</v>
+      </c>
+      <c r="CB6">
+        <v>0.9144117577812576</v>
       </c>
       <c r="CC6">
-        <v>1.269789101245975</v>
+        <v>0.8718852570054265</v>
+      </c>
+      <c r="CD6">
+        <v>0.8821728272074522</v>
+      </c>
+      <c r="CE6">
+        <v>1.125539426465963</v>
       </c>
       <c r="CF6">
-        <v>0.7891170257386383</v>
+        <v>0.8142393082467608</v>
       </c>
       <c r="CG6">
-        <v>0.8624397830614602</v>
+        <v>0.761071505874197</v>
       </c>
       <c r="CH6">
-        <v>0.9114288739924825</v>
+        <v>0.8866806717527018</v>
+      </c>
+      <c r="CI6">
+        <v>0.8765517409292126</v>
       </c>
       <c r="CK6">
-        <v>0.8307511211723788</v>
+        <v>0.87687949864924</v>
+      </c>
+      <c r="CL6">
+        <v>1.025462500882391</v>
+      </c>
+      <c r="CM6">
+        <v>0.7974285750993565</v>
       </c>
       <c r="CN6">
-        <v>0.7642544077167412</v>
+        <v>0.942872782238573</v>
+      </c>
+      <c r="CO6">
+        <v>1.179826745785375</v>
       </c>
       <c r="CP6">
-        <v>1.080759126174887</v>
+        <v>0.7721864189308714</v>
+      </c>
+      <c r="CQ6">
+        <v>0.7571557270626396</v>
       </c>
       <c r="CR6">
-        <v>1.277188547266182</v>
+        <v>0.8869814343203792</v>
       </c>
       <c r="CS6">
-        <v>0.8869814343203792</v>
+        <v>0.9228669826230466</v>
+      </c>
+      <c r="CT6">
+        <v>1.362151823785391</v>
+      </c>
+      <c r="CU6">
+        <v>1.130967040436421</v>
+      </c>
+      <c r="CV6">
+        <v>1.126742491305877</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.344599837999529</v>
       </c>
+      <c r="C7">
+        <v>1.114628431083784</v>
+      </c>
+      <c r="D7">
+        <v>1.34711350665956</v>
+      </c>
       <c r="E7">
+        <v>1.670598174338904</v>
+      </c>
+      <c r="F7">
         <v>1.183601705606877</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.859957266418172</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.047014606971193</v>
+      </c>
+      <c r="J7">
         <v>1.556209803935726</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.234390705181826</v>
       </c>
-      <c r="K7">
-        <v>1.837540486598494</v>
+      <c r="L7">
+        <v>1.137798288321983</v>
       </c>
       <c r="M7">
         <v>1.71740063918647</v>
       </c>
       <c r="N7">
+        <v>1.837540486598494</v>
+      </c>
+      <c r="O7">
+        <v>1.367882286490565</v>
+      </c>
+      <c r="P7">
         <v>1.322930583193401</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.678750087038476</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.723525050753214</v>
       </c>
       <c r="S7">
-        <v>1.12972305647988</v>
+        <v>1.227854080982555</v>
+      </c>
+      <c r="T7">
+        <v>1.201062907881149</v>
+      </c>
+      <c r="U7">
+        <v>1.219882818271918</v>
+      </c>
+      <c r="V7">
+        <v>1.297444477633381</v>
       </c>
       <c r="W7">
         <v>1.688760259364608</v>
       </c>
+      <c r="X7">
+        <v>1.211458907323959</v>
+      </c>
       <c r="Y7">
         <v>1.282603482330494</v>
       </c>
       <c r="Z7">
         <v>1.318436395377342</v>
       </c>
+      <c r="AA7">
+        <v>0.9219233536905906</v>
+      </c>
       <c r="AB7">
-        <v>0.8850130400836659</v>
+        <v>1.180455888666554</v>
+      </c>
+      <c r="AC7">
+        <v>1.25700313196917</v>
+      </c>
+      <c r="AD7">
+        <v>0.8486752137835379</v>
+      </c>
+      <c r="AE7">
+        <v>0.4308025036607922</v>
+      </c>
+      <c r="AF7">
+        <v>1.311925812310787</v>
+      </c>
+      <c r="AG7">
+        <v>1.068622582644847</v>
+      </c>
+      <c r="AH7">
+        <v>1.340219919400232</v>
+      </c>
+      <c r="AI7">
+        <v>1.398724531524195</v>
+      </c>
+      <c r="AJ7">
+        <v>1.046044346888549</v>
       </c>
       <c r="AK7">
+        <v>1.11635859918885</v>
+      </c>
+      <c r="AL7">
+        <v>0.8660709424082415</v>
+      </c>
+      <c r="AM7">
+        <v>1.536269638530867</v>
+      </c>
+      <c r="AN7">
+        <v>1.292030221056514</v>
+      </c>
+      <c r="AO7">
+        <v>1.103459409383193</v>
+      </c>
+      <c r="AP7">
+        <v>0.9292789748179304</v>
+      </c>
+      <c r="AQ7">
+        <v>1.254503407192907</v>
+      </c>
+      <c r="AR7">
         <v>0.9275781727472665</v>
       </c>
-      <c r="AQ7">
-        <v>1.218511670205558</v>
-      </c>
-      <c r="AR7">
-        <v>1.095336078679688</v>
-      </c>
       <c r="AS7">
-        <v>1.158187158058907</v>
+        <v>0.9011051789832701</v>
       </c>
       <c r="AT7">
-        <v>0.8486752137835379</v>
+        <v>1.097942390352598</v>
       </c>
       <c r="AU7">
-        <v>1.311925812310787</v>
+        <v>1.494257664935487</v>
+      </c>
+      <c r="AV7">
+        <v>1.217462584963063</v>
+      </c>
+      <c r="AW7">
+        <v>1.113686377695604</v>
       </c>
       <c r="AX7">
-        <v>1.398724531524195</v>
+        <v>1.385984435082229</v>
+      </c>
+      <c r="AY7">
+        <v>0.9726146008262508</v>
+      </c>
+      <c r="AZ7">
+        <v>1.05356254717741</v>
+      </c>
+      <c r="BA7">
+        <v>0.8088283223859121</v>
       </c>
       <c r="BB7">
-        <v>0.9466246485446141</v>
+        <v>1.349572536724486</v>
       </c>
       <c r="BC7">
-        <v>0.8333443428417071</v>
+        <v>0.8879227980872301</v>
+      </c>
+      <c r="BD7">
+        <v>0.9749489726977781</v>
+      </c>
+      <c r="BE7">
+        <v>0.9084874494302673</v>
+      </c>
+      <c r="BF7">
+        <v>1.000732872016626</v>
+      </c>
+      <c r="BG7">
+        <v>1.186473391375956</v>
+      </c>
+      <c r="BH7">
+        <v>0.8511998022130715</v>
       </c>
       <c r="BI7">
-        <v>1.126135728663909</v>
+        <v>0.9792468526143102</v>
       </c>
       <c r="BJ7">
-        <v>0.8567438405206722</v>
+        <v>0.9308546662393794</v>
       </c>
       <c r="BK7">
-        <v>1.339665292959494</v>
+        <v>0.855863866191764</v>
+      </c>
+      <c r="BL7">
+        <v>0.7611583586053569</v>
+      </c>
+      <c r="BM7">
+        <v>0.7756325136998908</v>
+      </c>
+      <c r="BN7">
+        <v>1.036008392109738</v>
+      </c>
+      <c r="BO7">
+        <v>0.8556461576627248</v>
       </c>
       <c r="BP7">
-        <v>0.9246891774108993</v>
+        <v>1.224885809085303</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9927914102386369</v>
       </c>
       <c r="BR7">
-        <v>0.8895767345597282</v>
-      </c>
-      <c r="BS7">
-        <v>0.9575285192285573</v>
+        <v>0.9199368779809858</v>
+      </c>
+      <c r="BT7">
+        <v>0.847103019098459</v>
       </c>
       <c r="BU7">
-        <v>1.15079532396863</v>
+        <v>0.825497786506909</v>
       </c>
       <c r="BV7">
-        <v>0.9741432449807638</v>
+        <v>1.175489753872478</v>
+      </c>
+      <c r="BW7">
+        <v>0.9633541667604487</v>
+      </c>
+      <c r="BX7">
+        <v>1.0403405163519</v>
+      </c>
+      <c r="BY7">
+        <v>0.8954907977889058</v>
+      </c>
+      <c r="BZ7">
+        <v>1.057131088744934</v>
+      </c>
+      <c r="CA7">
+        <v>1.060846982640444</v>
+      </c>
+      <c r="CB7">
+        <v>1.081184478049193</v>
+      </c>
+      <c r="CC7">
+        <v>0.7975733819545758</v>
+      </c>
+      <c r="CD7">
+        <v>0.9811801342241273</v>
+      </c>
+      <c r="CE7">
+        <v>1.067146452910225</v>
       </c>
       <c r="CF7">
-        <v>0.8948078820623154</v>
+        <v>0.9846061191680933</v>
       </c>
       <c r="CG7">
-        <v>0.93416620084062</v>
+        <v>0.960990124888916</v>
       </c>
       <c r="CH7">
-        <v>1.027917647546716</v>
+        <v>0.9175414177635464</v>
+      </c>
+      <c r="CI7">
+        <v>1.005087049710167</v>
+      </c>
+      <c r="CK7">
+        <v>0.9688226957660449</v>
+      </c>
+      <c r="CL7">
+        <v>1.193513180203449</v>
+      </c>
+      <c r="CM7">
+        <v>0.907738400266204</v>
+      </c>
+      <c r="CN7">
+        <v>0.7608569035515926</v>
+      </c>
+      <c r="CO7">
+        <v>1.269306615683148</v>
+      </c>
+      <c r="CP7">
+        <v>1.073025845335252</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9580766642909239</v>
+      </c>
+      <c r="CR7">
+        <v>1.181576271118958</v>
+      </c>
+      <c r="CS7">
+        <v>0.9901655975574036</v>
+      </c>
+      <c r="CT7">
+        <v>1.347558430021467</v>
+      </c>
+      <c r="CU7">
+        <v>1.183541536082315</v>
+      </c>
+      <c r="CV7">
+        <v>1.52891624563951</v>
       </c>
     </row>
   </sheetData>
